--- a/cfs_3_0.3.xlsx
+++ b/cfs_3_0.3.xlsx
@@ -6632,7 +6632,7 @@
         <v>3</v>
       </c>
       <c r="X81" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -6763,7 +6763,7 @@
         <v>1</v>
       </c>
       <c r="Q83" t="n">
-        <v>56.4</v>
+        <v>56</v>
       </c>
       <c r="R83" t="n">
         <v>41</v>
@@ -6936,7 +6936,7 @@
         <v>3</v>
       </c>
       <c r="X85" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -7155,7 +7155,7 @@
         <v>2</v>
       </c>
       <c r="U88" t="n">
-        <v>54.4</v>
+        <v>54</v>
       </c>
       <c r="V88" t="n">
         <v>5</v>
@@ -7295,7 +7295,7 @@
         <v>3</v>
       </c>
       <c r="Q90" t="n">
-        <v>56.5</v>
+        <v>56</v>
       </c>
       <c r="R90" t="n">
         <v>51</v>
